--- a/data/trans_orig/P15B_3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>10171</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5518</v>
+        <v>5499</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15312</v>
+        <v>15027</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4464562715507198</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.242208527392265</v>
+        <v>0.2413530188669803</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6721046969058128</v>
+        <v>0.6596166403892624</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>10171</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5630</v>
+        <v>5288</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17354</v>
+        <v>16956</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2631649858178032</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1456748763772014</v>
+        <v>0.13683189465257</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4490248081310628</v>
+        <v>0.4387220701054748</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>12611</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7470</v>
+        <v>7755</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17264</v>
+        <v>17283</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5535437284492801</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3278953030941872</v>
+        <v>0.3403833596107375</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7577914726077351</v>
+        <v>0.7586469811330196</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -841,19 +841,19 @@
         <v>28478</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21295</v>
+        <v>21693</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33019</v>
+        <v>33361</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7368350141821968</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5509751918689375</v>
+        <v>0.5612779298945252</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8543251236227987</v>
+        <v>0.86316810534743</v>
       </c>
     </row>
     <row r="6">
@@ -945,19 +945,19 @@
         <v>15037</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9005</v>
+        <v>8901</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22469</v>
+        <v>21961</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3514868128519911</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2105010861937691</v>
+        <v>0.2080577002030219</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5252274272162145</v>
+        <v>0.5133426665239107</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7480</v>
+        <v>7657</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07221286129553295</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2482210036225564</v>
+        <v>0.2540744837687695</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -987,19 +987,19 @@
         <v>17213</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10191</v>
+        <v>10317</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25771</v>
+        <v>25508</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2360644823793874</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1397630575555668</v>
+        <v>0.1414917935742442</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3534434253865271</v>
+        <v>0.3498318554022818</v>
       </c>
     </row>
     <row r="8">
@@ -1016,19 +1016,19 @@
         <v>27743</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20311</v>
+        <v>20819</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>33775</v>
+        <v>33879</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6485131871480089</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4747725727837853</v>
+        <v>0.4866573334760893</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7894989138062308</v>
+        <v>0.7919422997969781</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -1037,7 +1037,7 @@
         <v>27959</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>22655</v>
+        <v>22478</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>30135</v>
@@ -1046,7 +1046,7 @@
         <v>0.9277871387044671</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7517789963774428</v>
+        <v>0.7459255162312305</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1058,19 +1058,19 @@
         <v>55702</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>47144</v>
+        <v>47407</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>62724</v>
+        <v>62598</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7639355176206126</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6465565746134729</v>
+        <v>0.6501681445977183</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8602369424444331</v>
+        <v>0.8585082064257559</v>
       </c>
     </row>
     <row r="9">
@@ -1162,19 +1162,19 @@
         <v>10706</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5300</v>
+        <v>6142</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15942</v>
+        <v>15701</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4497291158463389</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2226387321386412</v>
+        <v>0.2580108104175975</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6696489622981679</v>
+        <v>0.6595300599287842</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1183,19 +1183,19 @@
         <v>6292</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2841</v>
+        <v>2339</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11595</v>
+        <v>11262</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2609127715680168</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1177962718618397</v>
+        <v>0.09698608994034781</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4808385790343477</v>
+        <v>0.4670215388033133</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1204,19 +1204,19 @@
         <v>16998</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10522</v>
+        <v>10560</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24229</v>
+        <v>23837</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3547128645335313</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2195729820434363</v>
+        <v>0.2203760387808122</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5056229358138804</v>
+        <v>0.4974391693900586</v>
       </c>
     </row>
     <row r="11">
@@ -1233,19 +1233,19 @@
         <v>13100</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7864</v>
+        <v>8105</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18506</v>
+        <v>17664</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5502708841536611</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3303510377018321</v>
+        <v>0.3404699400712157</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7773612678613593</v>
+        <v>0.7419891895824026</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -1254,19 +1254,19 @@
         <v>17822</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12519</v>
+        <v>12852</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21273</v>
+        <v>21775</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7390872284319832</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5191614209656523</v>
+        <v>0.5329784611966869</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8822037281381603</v>
+        <v>0.9030139100596526</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -1275,19 +1275,19 @@
         <v>30922</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>23691</v>
+        <v>24083</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37398</v>
+        <v>37360</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6452871354664688</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4943770641861197</v>
+        <v>0.5025608306099414</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7804270179565638</v>
+        <v>0.779623961219188</v>
       </c>
     </row>
     <row r="12">
@@ -1379,19 +1379,19 @@
         <v>3579</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7500</v>
+        <v>8407</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1061781692121007</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02658014523093475</v>
+        <v>0.02687264933445987</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2224863413930356</v>
+        <v>0.249398149177207</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4836</v>
+        <v>6520</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04304545737562561</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2041258954222808</v>
+        <v>0.2752318143177956</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1421,19 +1421,19 @@
         <v>4599</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1787</v>
+        <v>1761</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9832</v>
+        <v>10127</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08012275707106487</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03112666900132477</v>
+        <v>0.0306800025778779</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1712865347847399</v>
+        <v>0.1764262606563345</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>30131</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26210</v>
+        <v>25303</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32814</v>
+        <v>32804</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8938218307878992</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7775136586069644</v>
+        <v>0.750601850822793</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9734198547690653</v>
+        <v>0.9731273506655401</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -1471,7 +1471,7 @@
         <v>22669</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18853</v>
+        <v>17169</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>23689</v>
@@ -1480,7 +1480,7 @@
         <v>0.9569545426243744</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7958741045777189</v>
+        <v>0.7247681856822094</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1492,19 +1492,19 @@
         <v>52800</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>47567</v>
+        <v>47272</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>55612</v>
+        <v>55638</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9198772429289351</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8287134652152605</v>
+        <v>0.8235737393436627</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9688733309986752</v>
+        <v>0.9693199974221222</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>39493</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29359</v>
+        <v>30048</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50898</v>
+        <v>51287</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3208790836050793</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2385407911320321</v>
+        <v>0.2441374983923758</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4135438132681385</v>
+        <v>0.4167038430676636</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1617,19 +1617,19 @@
         <v>9488</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4998</v>
+        <v>4701</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16955</v>
+        <v>16412</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1011406918914414</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05327803248584367</v>
+        <v>0.05011854096064003</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1807475109307728</v>
+        <v>0.1749567541905621</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -1638,19 +1638,19 @@
         <v>48980</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36902</v>
+        <v>37070</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>62450</v>
+        <v>62490</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.225838107838174</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1701465577093595</v>
+        <v>0.1709232208426756</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2879433517052797</v>
+        <v>0.2881289615526597</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>83584</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>72179</v>
+        <v>71790</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>93718</v>
+        <v>93029</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6791209163949207</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5864561867318614</v>
+        <v>0.5832961569323362</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7614592088679678</v>
+        <v>0.7558625016076239</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>81</v>
@@ -1688,19 +1688,19 @@
         <v>84318</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>76851</v>
+        <v>77394</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>88808</v>
+        <v>89105</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8988593081085585</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8192524890692258</v>
+        <v>0.8250432458094369</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9467219675141563</v>
+        <v>0.9498814590393595</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>162</v>
@@ -1709,19 +1709,19 @@
         <v>167903</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>154433</v>
+        <v>154393</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>179981</v>
+        <v>179813</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.774161892161826</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7120566482947203</v>
+        <v>0.7118710384473403</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8298534422906405</v>
+        <v>0.8290767791573244</v>
       </c>
     </row>
     <row r="18">
@@ -2053,19 +2053,19 @@
         <v>14932</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9347</v>
+        <v>9089</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21960</v>
+        <v>22566</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2529865639457815</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1583612002748168</v>
+        <v>0.1539924905739952</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.372066828616168</v>
+        <v>0.3823335795580806</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9877</v>
+        <v>10290</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05208422923013653</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1882154526614296</v>
+        <v>0.1960823304861435</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -2095,19 +2095,19 @@
         <v>17665</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10628</v>
+        <v>11210</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26396</v>
+        <v>26521</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1584327707472434</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09532382298005405</v>
+        <v>0.1005431905733254</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2367364248228812</v>
+        <v>0.23786456388717</v>
       </c>
     </row>
     <row r="5">
@@ -2124,19 +2124,19 @@
         <v>44090</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37062</v>
+        <v>36456</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49675</v>
+        <v>49933</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7470134360542185</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6279331713838321</v>
+        <v>0.6176664204419193</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8416387997251833</v>
+        <v>0.8460075094260048</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>47</v>
@@ -2145,7 +2145,7 @@
         <v>49743</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42599</v>
+        <v>42186</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>52476</v>
@@ -2154,7 +2154,7 @@
         <v>0.9479157707698634</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8117845473385699</v>
+        <v>0.8039176695138566</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2166,19 +2166,19 @@
         <v>93833</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>85102</v>
+        <v>84977</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>100870</v>
+        <v>100288</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8415672292527566</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.763263575177119</v>
+        <v>0.7621354361128295</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9046761770199461</v>
+        <v>0.8994568094266745</v>
       </c>
     </row>
     <row r="6">
@@ -2270,19 +2270,19 @@
         <v>16534</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10357</v>
+        <v>10538</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24702</v>
+        <v>25541</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2033979965281169</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1274132417609121</v>
+        <v>0.1296329001562957</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3038813920029709</v>
+        <v>0.3141987204174086</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2291,19 +2291,19 @@
         <v>3134</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>970</v>
+        <v>956</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8960</v>
+        <v>7958</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04199994434125266</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01299941650914501</v>
+        <v>0.01280681428311397</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1200699527414924</v>
+        <v>0.106636837000376</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -2312,19 +2312,19 @@
         <v>19668</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12438</v>
+        <v>12329</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29530</v>
+        <v>30112</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1261492725958899</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07977236654031786</v>
+        <v>0.07907488758521758</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1894004008944646</v>
+        <v>0.1931341542262541</v>
       </c>
     </row>
     <row r="8">
@@ -2341,19 +2341,19 @@
         <v>64755</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>56587</v>
+        <v>55748</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>70932</v>
+        <v>70751</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7966020034718831</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6961186079970285</v>
+        <v>0.6858012795825915</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8725867582390878</v>
+        <v>0.8703670998437043</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>67</v>
@@ -2362,19 +2362,19 @@
         <v>71489</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>65663</v>
+        <v>66665</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>73653</v>
+        <v>73667</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9580000556587474</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8799300472585075</v>
+        <v>0.8933631629996259</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.987000583490855</v>
+        <v>0.9871931857168862</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>124</v>
@@ -2383,19 +2383,19 @@
         <v>136245</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>126383</v>
+        <v>125801</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>143475</v>
+        <v>143584</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8738507274041101</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8105995991055353</v>
+        <v>0.8068658457737461</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9202276334596821</v>
+        <v>0.9209251124147835</v>
       </c>
     </row>
     <row r="9">
@@ -2487,19 +2487,19 @@
         <v>14019</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7926</v>
+        <v>7728</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21171</v>
+        <v>20943</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2400268175586016</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1356974844742406</v>
+        <v>0.1323109718335032</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3624609352301775</v>
+        <v>0.3585646917754122</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -2508,19 +2508,19 @@
         <v>5309</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1301</v>
+        <v>1974</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12062</v>
+        <v>13343</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09306329134889782</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02281120927144413</v>
+        <v>0.03461258163490289</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2114409902373022</v>
+        <v>0.2339104730710352</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -2529,19 +2529,19 @@
         <v>19328</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11952</v>
+        <v>11591</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28186</v>
+        <v>27929</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1674131501608601</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1035248782971023</v>
+        <v>0.10039386390079</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2441300454925291</v>
+        <v>0.2419081092377615</v>
       </c>
     </row>
     <row r="11">
@@ -2558,19 +2558,19 @@
         <v>44389</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>37237</v>
+        <v>37465</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>50482</v>
+        <v>50680</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7599731824413984</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6375390647698225</v>
+        <v>0.6414353082245878</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8643025155257594</v>
+        <v>0.8676890281664968</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>49</v>
@@ -2579,19 +2579,19 @@
         <v>51736</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>44983</v>
+        <v>43702</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55744</v>
+        <v>55071</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9069367086511022</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.788559009762698</v>
+        <v>0.766089526928964</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9771887907285559</v>
+        <v>0.9653874183650968</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>92</v>
@@ -2600,19 +2600,19 @@
         <v>96125</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>87267</v>
+        <v>87524</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>103501</v>
+        <v>103862</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.83258684983914</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7558699545074711</v>
+        <v>0.7580918907622386</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8964751217028977</v>
+        <v>0.8996061360992104</v>
       </c>
     </row>
     <row r="12">
@@ -2704,19 +2704,19 @@
         <v>16711</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9920</v>
+        <v>9681</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24742</v>
+        <v>25383</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1893513376453578</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1124091602780218</v>
+        <v>0.1096958430404874</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.28035446429796</v>
+        <v>0.2876181947913073</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7828</v>
+        <v>7652</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03185712983283</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1098468978218899</v>
+        <v>0.1073863846687775</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -2746,19 +2746,19 @@
         <v>18981</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11921</v>
+        <v>12306</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28223</v>
+        <v>29657</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.118992383519424</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0747315048185546</v>
+        <v>0.07714991152201461</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1769292410851961</v>
+        <v>0.1859239214789944</v>
       </c>
     </row>
     <row r="14">
@@ -2775,19 +2775,19 @@
         <v>71541</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>63510</v>
+        <v>62869</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>78332</v>
+        <v>78571</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8106486623546422</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7196455357020399</v>
+        <v>0.7123818052086927</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8875908397219781</v>
+        <v>0.8903041569595126</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -2796,7 +2796,7 @@
         <v>68991</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>63433</v>
+        <v>63609</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>71261</v>
@@ -2805,7 +2805,7 @@
         <v>0.96814287016717</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8901531021781097</v>
+        <v>0.8926136153312224</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -2817,19 +2817,19 @@
         <v>140533</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>131291</v>
+        <v>129857</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>147593</v>
+        <v>147208</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.881007616480576</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8230707589148039</v>
+        <v>0.8140760785210059</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9252684951814454</v>
+        <v>0.9228500884779856</v>
       </c>
     </row>
     <row r="15">
@@ -2921,19 +2921,19 @@
         <v>62196</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48712</v>
+        <v>48879</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76925</v>
+        <v>75865</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2167323394876638</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1697446666138158</v>
+        <v>0.1703270719971355</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2680569748954998</v>
+        <v>0.264364232308139</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -2942,19 +2942,19 @@
         <v>13446</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7252</v>
+        <v>6739</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24302</v>
+        <v>23207</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05264687529362158</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.028392660922409</v>
+        <v>0.02638448427848218</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.095152351366646</v>
+        <v>0.09086444810774015</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>73</v>
@@ -2963,19 +2963,19 @@
         <v>75642</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>60898</v>
+        <v>60005</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94648</v>
+        <v>93715</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1394646422901578</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1122796934474893</v>
+        <v>0.1106338499174912</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1745055905008146</v>
+        <v>0.1727862370158598</v>
       </c>
     </row>
     <row r="17">
@@ -2992,19 +2992,19 @@
         <v>224776</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>210047</v>
+        <v>211107</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>238260</v>
+        <v>238093</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7832676605123362</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7319430251045</v>
+        <v>0.7356357676918609</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.830255333386184</v>
+        <v>0.8296729280028644</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>228</v>
@@ -3013,19 +3013,19 @@
         <v>241959</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>231103</v>
+        <v>232198</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>248153</v>
+        <v>248666</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9473531247063784</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9048476486333538</v>
+        <v>0.9091355518922601</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9716073390775908</v>
+        <v>0.9736155157215179</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>441</v>
@@ -3034,19 +3034,19 @@
         <v>466735</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>447729</v>
+        <v>448662</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>481479</v>
+        <v>482372</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8605353577098422</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8254944094991854</v>
+        <v>0.8272137629841403</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8877203065525108</v>
+        <v>0.8893661500825089</v>
       </c>
     </row>
     <row r="18">
@@ -3378,19 +3378,19 @@
         <v>4936</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1013</v>
+        <v>1937</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9859</v>
+        <v>9532</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1241916948829648</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02549526612923771</v>
+        <v>0.04873346306102783</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2480620932832586</v>
+        <v>0.2398356940565479</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -3399,19 +3399,19 @@
         <v>2823</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7805</v>
+        <v>7740</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05799817076174715</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01752409051824948</v>
+        <v>0.01742714875565252</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1603492743421094</v>
+        <v>0.1590214337371851</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -3420,19 +3420,19 @@
         <v>7759</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3800</v>
+        <v>3691</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13845</v>
+        <v>13075</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08775135313080057</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04298053646816844</v>
+        <v>0.0417401459524357</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1565868981798577</v>
+        <v>0.1478812680348312</v>
       </c>
     </row>
     <row r="5">
@@ -3449,19 +3449,19 @@
         <v>34807</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29884</v>
+        <v>30211</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38730</v>
+        <v>37806</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8758083051170352</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7519379067167414</v>
+        <v>0.7601643059434529</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9745047338707623</v>
+        <v>0.9512665369389722</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -3470,19 +3470,19 @@
         <v>45852</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>40870</v>
+        <v>40935</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47822</v>
+        <v>47827</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9420018292382528</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.83965072565789</v>
+        <v>0.8409785662628149</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9824759094817506</v>
+        <v>0.9825728512443475</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>79</v>
@@ -3491,19 +3491,19 @@
         <v>80659</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>74573</v>
+        <v>75343</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>84618</v>
+        <v>84727</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9122486468691994</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8434131018201424</v>
+        <v>0.8521187319651689</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9570194635318316</v>
+        <v>0.9582598540475644</v>
       </c>
     </row>
     <row r="6">
@@ -3595,19 +3595,19 @@
         <v>11602</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6068</v>
+        <v>6193</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18708</v>
+        <v>19573</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.191851296280063</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1003460665156736</v>
+        <v>0.1024035263126603</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3093564557022745</v>
+        <v>0.3236586369504098</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -3629,19 +3629,19 @@
         <v>11602</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5734</v>
+        <v>5690</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19340</v>
+        <v>18937</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1063696440353724</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05256627528286913</v>
+        <v>0.05216233579801578</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1773140663764073</v>
+        <v>0.1736148042993388</v>
       </c>
     </row>
     <row r="8">
@@ -3658,19 +3658,19 @@
         <v>48873</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>41767</v>
+        <v>40902</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>54407</v>
+        <v>54282</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.808148703719937</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6906435442977261</v>
+        <v>0.6763413630495904</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8996539334843265</v>
+        <v>0.8975964736873397</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>44</v>
@@ -3692,19 +3692,19 @@
         <v>97472</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>89734</v>
+        <v>90137</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>103340</v>
+        <v>103384</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8936303559646276</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8226859336235927</v>
+        <v>0.8263851957006613</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9474337247171306</v>
+        <v>0.9478376642019842</v>
       </c>
     </row>
     <row r="9">
@@ -3796,19 +3796,19 @@
         <v>6069</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2335</v>
+        <v>2110</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12652</v>
+        <v>12475</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1655265147095949</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06367737141565298</v>
+        <v>0.05755902446992795</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3450622260588748</v>
+        <v>0.3402358204910741</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3817,19 +3817,19 @@
         <v>5100</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1958</v>
+        <v>1925</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10552</v>
+        <v>10436</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1615897102901792</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0620304594029017</v>
+        <v>0.06097801117558039</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3343338196530326</v>
+        <v>0.3306724224652977</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -3838,19 +3838,19 @@
         <v>11169</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6157</v>
+        <v>6153</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19012</v>
+        <v>19128</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1637053972059186</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09024190923380708</v>
+        <v>0.09017877831250123</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2786561203544516</v>
+        <v>0.2803645667051107</v>
       </c>
     </row>
     <row r="11">
@@ -3867,19 +3867,19 @@
         <v>30597</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24014</v>
+        <v>24191</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34331</v>
+        <v>34556</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8344734852904051</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6549377739411254</v>
+        <v>0.6597641795089257</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9363226285843471</v>
+        <v>0.9424409755300721</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -3888,19 +3888,19 @@
         <v>26461</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21009</v>
+        <v>21125</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29603</v>
+        <v>29636</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8384102897098208</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6656661803469672</v>
+        <v>0.6693275775347022</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9379695405970983</v>
+        <v>0.9390219888244196</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>52</v>
@@ -3909,19 +3909,19 @@
         <v>57058</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>49215</v>
+        <v>49099</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>62070</v>
+        <v>62074</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8362946027940814</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7213438796455484</v>
+        <v>0.71963543329489</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.909758090766193</v>
+        <v>0.9098212216874989</v>
       </c>
     </row>
     <row r="12">
@@ -4013,19 +4013,19 @@
         <v>6935</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2884</v>
+        <v>3056</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12568</v>
+        <v>13001</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1139039210162734</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04736129688748201</v>
+        <v>0.05019352334389637</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2064173837079564</v>
+        <v>0.2135254642413501</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -4034,19 +4034,19 @@
         <v>6195</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2210</v>
+        <v>2062</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11730</v>
+        <v>12215</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09893133097940704</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03529813508044693</v>
+        <v>0.03292397984450792</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1873299595704438</v>
+        <v>0.1950778810359779</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -4055,19 +4055,19 @@
         <v>13130</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7121</v>
+        <v>7398</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21329</v>
+        <v>20631</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1063126303289468</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05765605162198534</v>
+        <v>0.05989749020196382</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1726965078306237</v>
+        <v>0.1670497865596651</v>
       </c>
     </row>
     <row r="14">
@@ -4084,19 +4084,19 @@
         <v>53951</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48318</v>
+        <v>47885</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58002</v>
+        <v>57830</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8860960789837266</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7935826162920441</v>
+        <v>0.7864745357586499</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.952638703112518</v>
+        <v>0.9498064766561036</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -4105,19 +4105,19 @@
         <v>56423</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>50888</v>
+        <v>50403</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60408</v>
+        <v>60556</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.901068669020593</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8126700404295563</v>
+        <v>0.8049221189640218</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9647018649195531</v>
+        <v>0.9670760201554921</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>100</v>
@@ -4126,19 +4126,19 @@
         <v>110374</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>102175</v>
+        <v>102873</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>116383</v>
+        <v>116106</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8936873696710532</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8273034921693763</v>
+        <v>0.8329502134403353</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9423439483780146</v>
+        <v>0.9401025097980364</v>
       </c>
     </row>
     <row r="15">
@@ -4230,19 +4230,19 @@
         <v>29542</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19971</v>
+        <v>20516</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41006</v>
+        <v>41292</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1493770723618271</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1009837460447371</v>
+        <v>0.1037346767917693</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2073407684596927</v>
+        <v>0.2087899847800534</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -4251,19 +4251,19 @@
         <v>14118</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8168</v>
+        <v>7254</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22691</v>
+        <v>22559</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07374054388422088</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04266470319071783</v>
+        <v>0.0378881539605784</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1185212447961957</v>
+        <v>0.1178279159451271</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -4272,19 +4272,19 @@
         <v>43660</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32600</v>
+        <v>32712</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56805</v>
+        <v>57937</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1121724938987589</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08375766558011472</v>
+        <v>0.08404559819152103</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1459445614901437</v>
+        <v>0.1488528703542169</v>
       </c>
     </row>
     <row r="17">
@@ -4301,19 +4301,19 @@
         <v>168227</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>156763</v>
+        <v>156477</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>177798</v>
+        <v>177253</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8506229276381729</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7926592315403073</v>
+        <v>0.7912100152199467</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.899016253955263</v>
+        <v>0.8962653232082307</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>158</v>
@@ -4322,19 +4322,19 @@
         <v>177335</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>168762</v>
+        <v>168894</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>183285</v>
+        <v>184199</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9262594561157791</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8814787552038044</v>
+        <v>0.8821720840548731</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9573352968092821</v>
+        <v>0.962111846039422</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>321</v>
@@ -4343,19 +4343,19 @@
         <v>345563</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>332418</v>
+        <v>331286</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>356623</v>
+        <v>356511</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8878275061012412</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8540554385098564</v>
+        <v>0.8511471296457833</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9162423344198852</v>
+        <v>0.915954401808479</v>
       </c>
     </row>
     <row r="18">
@@ -4687,19 +4687,19 @@
         <v>15107</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8223</v>
+        <v>7875</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24877</v>
+        <v>24348</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.304012736618515</v>
+        <v>0.3040127366185149</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.165474241303887</v>
+        <v>0.158472792638744</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5006435003030794</v>
+        <v>0.4899972092592807</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -4708,19 +4708,19 @@
         <v>2675</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>990</v>
+        <v>1009</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5412</v>
+        <v>5746</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05700511739949404</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02108939585522094</v>
+        <v>0.02149598251699445</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1153420067782427</v>
+        <v>0.1224597906154437</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -4729,19 +4729,19 @@
         <v>17781</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10153</v>
+        <v>10490</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30714</v>
+        <v>30646</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1840482624253428</v>
+        <v>0.1840482624253429</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1050903572733181</v>
+        <v>0.1085762540564494</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3179079465598719</v>
+        <v>0.3172085358884845</v>
       </c>
     </row>
     <row r="5">
@@ -4758,19 +4758,19 @@
         <v>34584</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24814</v>
+        <v>25343</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>41468</v>
+        <v>41816</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6959872633814851</v>
+        <v>0.6959872633814852</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4993564996969205</v>
+        <v>0.5100027907407193</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8345257586961128</v>
+        <v>0.841527207361256</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>87</v>
@@ -4779,19 +4779,19 @@
         <v>44247</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>41510</v>
+        <v>41176</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45932</v>
+        <v>45913</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9429948826005061</v>
+        <v>0.9429948826005059</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8846579932217572</v>
+        <v>0.8775402093845567</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9789106041447789</v>
+        <v>0.9785040174830055</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>131</v>
@@ -4800,19 +4800,19 @@
         <v>78831</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>65898</v>
+        <v>65966</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>86459</v>
+        <v>86122</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8159517375746571</v>
+        <v>0.8159517375746572</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6820920534401292</v>
+        <v>0.6827914641115156</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8949096427266821</v>
+        <v>0.8914237459435506</v>
       </c>
     </row>
     <row r="6">
@@ -4904,19 +4904,19 @@
         <v>16849</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9435</v>
+        <v>9747</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27429</v>
+        <v>26420</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.228613563432986</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1280175707116616</v>
+        <v>0.1322450624169075</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3721545437590297</v>
+        <v>0.3584659760806752</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -4925,19 +4925,19 @@
         <v>4620</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1415</v>
+        <v>1145</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11445</v>
+        <v>11926</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07356380321458184</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02252293344637893</v>
+        <v>0.0182365870525561</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1822411466280917</v>
+        <v>0.1898851286479047</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -4946,19 +4946,19 @@
         <v>21469</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13417</v>
+        <v>12837</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32300</v>
+        <v>31990</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1572779702624287</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09828513394011837</v>
+        <v>0.09403823062980529</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2366191141724388</v>
+        <v>0.2343460948726777</v>
       </c>
     </row>
     <row r="8">
@@ -4975,19 +4975,19 @@
         <v>56853</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46273</v>
+        <v>47282</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>64267</v>
+        <v>63955</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7713864365670141</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6278454562409703</v>
+        <v>0.6415340239193248</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8719824292883386</v>
+        <v>0.8677549375830921</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>84</v>
@@ -4996,19 +4996,19 @@
         <v>58184</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>51359</v>
+        <v>50878</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>61389</v>
+        <v>61659</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9264361967854182</v>
+        <v>0.9264361967854181</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8177588533719085</v>
+        <v>0.8101148713520966</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9774770665536212</v>
+        <v>0.981763412947444</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>133</v>
@@ -5017,19 +5017,19 @@
         <v>115037</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>104206</v>
+        <v>104516</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>123089</v>
+        <v>123669</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8427220297375712</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7633808858275617</v>
+        <v>0.7656539051273222</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.901714866059882</v>
+        <v>0.9059617693701949</v>
       </c>
     </row>
     <row r="9">
@@ -5121,19 +5121,19 @@
         <v>7011</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2700</v>
+        <v>2714</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13338</v>
+        <v>12809</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2126240692954934</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08190238346131959</v>
+        <v>0.08231574817829641</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4045367677825831</v>
+        <v>0.3884814733470204</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -5142,19 +5142,19 @@
         <v>1666</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4742</v>
+        <v>4400</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.033671460402575</v>
+        <v>0.03367146040257502</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009073556780086464</v>
+        <v>0.00938295526567832</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09583560800711388</v>
+        <v>0.08892890900804468</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -5163,19 +5163,19 @@
         <v>8677</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4018</v>
+        <v>4283</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16682</v>
+        <v>16634</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1052327700177134</v>
+        <v>0.1052327700177133</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04873651062773066</v>
+        <v>0.05194424026010952</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2023264536634248</v>
+        <v>0.2017454304894094</v>
       </c>
     </row>
     <row r="11">
@@ -5192,19 +5192,19 @@
         <v>25961</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19634</v>
+        <v>20163</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30272</v>
+        <v>30258</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7873759307045064</v>
+        <v>0.7873759307045066</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5954632322174181</v>
+        <v>0.6115185266529796</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9180976165386807</v>
+        <v>0.9176842518217035</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>66</v>
@@ -5213,19 +5213,19 @@
         <v>47815</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>44739</v>
+        <v>45081</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49032</v>
+        <v>49017</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.966328539597425</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9041643919928861</v>
+        <v>0.9110710909919553</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9909264432199135</v>
+        <v>0.9906170447343216</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>90</v>
@@ -5234,19 +5234,19 @@
         <v>73775</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>65770</v>
+        <v>65818</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>78434</v>
+        <v>78169</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8947672299822867</v>
+        <v>0.8947672299822866</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7976735463365752</v>
+        <v>0.7982545695105904</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9512634893722691</v>
+        <v>0.9480557597398903</v>
       </c>
     </row>
     <row r="12">
@@ -5338,19 +5338,19 @@
         <v>10540</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5647</v>
+        <v>5314</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18998</v>
+        <v>18081</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1658611264687246</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08885692077124303</v>
+        <v>0.0836242723691925</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2989658373496515</v>
+        <v>0.284533834032168</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -5359,19 +5359,19 @@
         <v>7609</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3879</v>
+        <v>3673</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13708</v>
+        <v>13050</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1042654465576948</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05316022960048464</v>
+        <v>0.05033145855406411</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1878557454137579</v>
+        <v>0.1788320005314377</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -5380,19 +5380,19 @@
         <v>18149</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11398</v>
+        <v>11360</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27177</v>
+        <v>27727</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1329365801848193</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08349300372208897</v>
+        <v>0.0832140190948443</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1990720173914084</v>
+        <v>0.2031013133700921</v>
       </c>
     </row>
     <row r="14">
@@ -5409,19 +5409,19 @@
         <v>53006</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>44548</v>
+        <v>45465</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>57899</v>
+        <v>58232</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8341388735312754</v>
+        <v>0.8341388735312755</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7010341626503483</v>
+        <v>0.715466165967832</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.911143079228757</v>
+        <v>0.9163757276308075</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>100</v>
@@ -5430,19 +5430,19 @@
         <v>65364</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>59265</v>
+        <v>59923</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>69094</v>
+        <v>69300</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8957345534423052</v>
+        <v>0.8957345534423051</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8121442545862425</v>
+        <v>0.8211679994685623</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9468397703995154</v>
+        <v>0.9496685414459359</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>153</v>
@@ -5451,19 +5451,19 @@
         <v>118371</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>109343</v>
+        <v>108793</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>125122</v>
+        <v>125160</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8670634198151808</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8009279826085914</v>
+        <v>0.7968986866299075</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9165069962779111</v>
+        <v>0.9167859809051557</v>
       </c>
     </row>
     <row r="15">
@@ -5555,19 +5555,19 @@
         <v>49506</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36630</v>
+        <v>35410</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65858</v>
+        <v>63881</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2251200706489317</v>
+        <v>0.2251200706489316</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1665661108627925</v>
+        <v>0.1610185385228425</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2994762012737923</v>
+        <v>0.2904873451088611</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -5576,19 +5576,19 @@
         <v>16570</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10825</v>
+        <v>10055</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25386</v>
+        <v>26037</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07136526120448072</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0466227796313925</v>
+        <v>0.04330780801506204</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1093363204005175</v>
+        <v>0.1121418613028523</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -5597,19 +5597,19 @@
         <v>66076</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50893</v>
+        <v>51632</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>85760</v>
+        <v>85605</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1461563306711572</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1125718594342362</v>
+        <v>0.1142072073596716</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.189697352301953</v>
+        <v>0.1893544477406301</v>
       </c>
     </row>
     <row r="17">
@@ -5626,19 +5626,19 @@
         <v>170405</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>154053</v>
+        <v>156030</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>183281</v>
+        <v>184501</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7748799293510683</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7005237987262077</v>
+        <v>0.709512654891139</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8334338891372075</v>
+        <v>0.8389814614771575</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>337</v>
@@ -5647,19 +5647,19 @@
         <v>215610</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>206794</v>
+        <v>206143</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>221355</v>
+        <v>222125</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9286347387955193</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8906636795994827</v>
+        <v>0.8878581386971485</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9533772203686075</v>
+        <v>0.9566921919849378</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>507</v>
@@ -5668,19 +5668,19 @@
         <v>386015</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>366331</v>
+        <v>366486</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>401198</v>
+        <v>400459</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8538436693288426</v>
+        <v>0.8538436693288427</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8103026476980465</v>
+        <v>0.8106455522593707</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8874281405657634</v>
+        <v>0.8857927926403285</v>
       </c>
     </row>
     <row r="18">
